--- a/OBPIT/Задание 6.xlsx
+++ b/OBPIT/Задание 6.xlsx
@@ -246,7 +246,7 @@
         <i/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <rFont val="Courier New"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>t</t>
@@ -254,7 +254,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Courier New"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> , тыс. долл. </t>
@@ -269,7 +269,7 @@
         <i/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <rFont val="Courier New"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>t</t>
@@ -277,7 +277,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Courier New"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> &gt; 0 </t>
@@ -297,7 +297,7 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <rFont val="Courier New"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>T</t>
@@ -306,7 +306,7 @@
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <rFont val="Courier New"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>ок</t>
@@ -314,7 +314,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Courier New"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, лет </t>
@@ -328,7 +328,7 @@
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <rFont val="Courier New"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>ок</t>
@@ -336,7 +336,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Courier New"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> &lt; срок реализации проекта </t>
@@ -353,7 +353,7 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <rFont val="Courier New"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> r, </t>
@@ -361,7 +361,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Courier New"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">при котором ЧДС = 0  </t>
@@ -585,54 +585,54 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.000000"/>
+      <color theme="1"/>
       <name val="Courier New"/>
-      <color theme="1"/>
-      <sz val="10.000000"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Courier New"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Courier New"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
     </font>
     <font>
-      <name val="Courier New"/>
       <b/>
       <sz val="11.000000"/>
+      <name val="Courier New"/>
     </font>
     <font>
+      <sz val="13.000000"/>
       <name val="Courier New"/>
-      <sz val="13.000000"/>
     </font>
     <font>
-      <name val="Courier New"/>
       <i/>
       <sz val="13.000000"/>
+      <name val="Courier New"/>
     </font>
     <font>
+      <sz val="11.000000"/>
       <name val="Courier New"/>
-      <sz val="11.000000"/>
     </font>
     <font>
-      <name val="Courier New"/>
       <i/>
       <sz val="11.000000"/>
+      <name val="Courier New"/>
     </font>
     <font>
+      <sz val="12.000000"/>
+      <color theme="1"/>
       <name val="Courier New"/>
-      <color theme="1"/>
-      <sz val="12.000000"/>
     </font>
   </fonts>
   <fills count="4">
@@ -7255,7 +7255,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>609598</xdr:colOff>
+      <xdr:colOff>609597</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>

--- a/OBPIT/Задание 6.xlsx
+++ b/OBPIT/Задание 6.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>Показатель</t>
   </si>
@@ -368,6 +368,12 @@
     </r>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t xml:space="preserve">Таким образом, во всех трех ситуациях финансирования проект может быть успешно реализован: чистый дисконтированный доход положительный, индекс доходности превышает единицу, а срок окупаемости – в пределах периода реализации проекта. </t>
   </si>
   <si>
@@ -583,7 +589,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -630,6 +636,11 @@
       <name val="Courier New"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color theme="0" tint="-0.049989318521683403"/>
+      <name val="Courier New"/>
+    </font>
+    <font>
       <sz val="12.000000"/>
       <color theme="1"/>
       <name val="Courier New"/>
@@ -655,7 +666,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -668,34 +679,34 @@
         <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="medium">
         <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="medium">
         <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
         <color theme="1"/>
@@ -704,7 +715,7 @@
         <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,7 +723,9 @@
       <left style="medium">
         <color theme="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
       <top style="medium">
         <color theme="1"/>
       </top>
@@ -722,7 +735,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
       <right style="medium">
         <color theme="1"/>
       </right>
@@ -739,10 +754,10 @@
         <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="medium">
         <color theme="1"/>
@@ -751,13 +766,13 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="medium">
         <color theme="1"/>
@@ -766,239 +781,14 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
         <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
         <color theme="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
@@ -1092,21 +882,32 @@
       <top style="medium">
         <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
       </right>
       <top style="medium">
         <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,34 +921,6 @@
       <top style="medium">
         <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1158,9 +931,7 @@
       <right style="medium">
         <color theme="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
@@ -1170,187 +941,11 @@
       <left style="medium">
         <color theme="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color theme="1"/>
       </right>
       <top style="medium">
         <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
       </top>
       <bottom style="medium">
         <color theme="1"/>
@@ -1403,10 +998,223 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="medium">
         <color theme="1"/>
@@ -1417,7 +1225,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="149">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1461,379 +1269,295 @@
     <xf fontId="1" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="1" fillId="0" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="11" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="13" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="15" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="16" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="17" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="7" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="29" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="33" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="3" fillId="2" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="2" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="22" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="22" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="22" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="13" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="15" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="15" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="16" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="11" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="29" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="33" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="35" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="36" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="37" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="33" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="38" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="3" fillId="2" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="35" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="8" fillId="0" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="36" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="8" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="37" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="38" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="8" fillId="0" borderId="33" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="39" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="37" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="2" fillId="0" borderId="40" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="41" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="42" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="43" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="44" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="45" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="46" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="47" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="48" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="49" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="50" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="51" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="52" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="53" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="2" borderId="54" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="2" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="0" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="10" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="11" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="16" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="16" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="17" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="7" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="7" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="55" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="8" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="56" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="29" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="33" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="57" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="58" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="59" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="57" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="59" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="8" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="8" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="41" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1842,109 +1566,109 @@
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="3" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="3" borderId="60" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="3" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="3" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="11" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="28" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="29" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="17" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="31" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="8" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="34" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="3" borderId="57" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="3" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="3" borderId="59" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="3" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="29" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="33" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="34" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="28" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="29" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="31" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="33" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3482,7 +3206,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent>
     <mc:Choice Requires="c14">
@@ -3496,21 +3220,10 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
+          <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
@@ -3520,7 +3233,7 @@
               <a:rPr lang="ru-RU"/>
               <a:t> ВНД (графический метод)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3534,14 +3247,12 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
+        <a:bodyPr/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
+            <a:defRPr sz="1400" b="0" spc="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3553,15 +3264,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3570,13 +3283,15 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -3593,604 +3308,31 @@
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:backward val="80"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
+          <c:val>
             <c:numRef>
-              <c:f>'6.2'!$D$43:$D$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>81.85568490121804</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.094813039757582</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'6.2'!$I$23:$I$33</c:f>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'6.2'!$C$43:$C$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLeaderLines val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
-        <c:axId val="476164416"/>
-        <c:axId val="476166912"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="476164416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="130"/>
-          <c:min val="-20"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr bwMode="auto">
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>ЧДС, тыс. долл</a:t>
-                </a:r>
-                <a:endParaRPr/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr bwMode="auto">
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr bwMode="auto">
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="476166912"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="20"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="476166912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr bwMode="auto">
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>r, %</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr bwMode="auto">
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr bwMode="auto">
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="476164416"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr bwMode="auto">
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr bwMode="auto">
-    <a:xfrm>
-      <a:off x="7928609" y="7671434"/>
-      <a:ext cx="7351394" cy="2743199"/>
-    </a:xfrm>
-    <a:prstGeom prst="rect">
-      <a:avLst/>
-    </a:prstGeom>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Финансовый профиль проекта</a:t>
-            </a:r>
-            <a:endParaRPr/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr bwMode="auto">
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>СК</c:v>
-          </c:tx>
-          <c:spPr bwMode="auto">
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[2]Аркуш1!$A$46:$A$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[2]Аркуш1!$I$22:$I$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-106</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-152.42857142857142</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-126.91836734693877</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-72.82306851311954</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-43.589236906497305</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-7.273918140506957</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31.736678190146733</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>72.44810757046714</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>108.79759808861036</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>143.416160486842</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>171.10585883364183</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>ЗК</c:v>
-          </c:tx>
           <c:spPr bwMode="auto">
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -4207,112 +3349,31 @@
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:val>
             <c:numRef>
-              <c:f>[2]Аркуш1!$A$46:$A$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'6.2'!$J$23:$J$33</c:f>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[2]Аркуш1!$J$22:$J$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-106</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-149.69747899159665</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-127.10020478779748</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-82.00060291046721</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-59.061840345703914</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-32.24268060611949</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-5.127721310583773</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21.504891770265456</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43.88523889702951</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>63.94605424875079</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>79.0478585226306</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v xml:space="preserve">СК + ЗК</c:v>
-          </c:tx>
           <c:spPr bwMode="auto">
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -4329,202 +3390,29 @@
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:val>
             <c:numRef>
-              <c:f>[2]Аркуш1!$A$46:$A$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'6.2'!$K$23:$K$33</c:f>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[2]Аркуш1!$K$22:$K$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-106</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-150.82758620689657</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-127.04637336504163</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-78.35639017589898</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-52.95099967339714</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-22.47976668688819</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.12428692250283</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.968944612216134</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>68.42123572403794</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>93.6647218038741</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>113.15951170029929</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLeaderLines val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
-        <c:axId val="482154240"/>
-        <c:axId val="482157568"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="482154240"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="511721971"/>
+        <c:axId val="511721972"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="511721971"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr bwMode="auto">
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Период реализации проекта, </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>t, </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>лет</a:t>
-                </a:r>
-                <a:endParaRPr/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr bwMode="auto">
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr bwMode="auto">
           <a:prstGeom prst="rect">
@@ -4534,20 +3422,18 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
+          <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:defRPr sz="900">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4559,15 +3445,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482157568"/>
+        <c:crossAx val="511721972"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="482157568"/>
+        <c:axId val="511721972"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4578,6 +3467,7 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4587,81 +3477,8 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Накопленная дисконтированная стоимость потока, ЧДД</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>t</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t> тыс. долл</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr bwMode="auto">
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4671,23 +3488,15 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
+          <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:defRPr sz="900">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4699,12 +3508,12 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482154240"/>
+        <c:crossAx val="511721971"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr bwMode="auto">
         <a:prstGeom prst="rect">
@@ -4714,7 +3523,6 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
@@ -4736,7 +3544,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:defRPr sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4748,7 +3556,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4758,8 +3566,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="39218" y="7728807"/>
-      <a:ext cx="7743825" cy="2743199"/>
+      <a:off x="4501168" y="8817205"/>
+      <a:ext cx="4557452" cy="2683625"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -4776,16 +3584,331 @@
       </a:solidFill>
       <a:round/>
     </a:ln>
-    <a:effectLst/>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
-    <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6.2'!$D$45:$D$46</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6.2'!$C$45:$C$46</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="511722053"/>
+        <c:axId val="511722054"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="511722053"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511722054"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="511722054"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511722053"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="181840" y="8919036"/>
+      <a:ext cx="4142508" cy="2479963"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6093,7 +5216,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6123,8 +5246,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6170,38 +5293,25 @@
     </cs:fontRef>
     <cs:defRPr sz="900"/>
   </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr bwMode="auto">
       <a:prstGeom prst="rect">
         <a:avLst/>
       </a:prstGeom>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
@@ -6210,16 +5320,14 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6234,7 +5342,7 @@
       <a:prstGeom prst="rect">
         <a:avLst/>
       </a:prstGeom>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6257,6 +5365,9 @@
       <a:prstGeom prst="rect">
         <a:avLst/>
       </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6268,10 +5379,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr bwMode="auto">
       <a:prstGeom prst="rect">
@@ -6317,7 +5428,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr bwMode="auto">
       <a:prstGeom prst="rect">
@@ -6325,18 +5436,17 @@
       </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6459,8 +5569,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6601,7 +5711,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr bwMode="auto">
       <a:prstGeom prst="rect">
@@ -6610,14 +5720,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6631,20 +5740,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6669,7 +5764,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6699,8 +5794,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6746,38 +5841,25 @@
     </cs:fontRef>
     <cs:defRPr sz="900"/>
   </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr bwMode="auto">
       <a:prstGeom prst="rect">
         <a:avLst/>
       </a:prstGeom>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
@@ -6786,16 +5868,14 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6810,7 +5890,7 @@
       <a:prstGeom prst="rect">
         <a:avLst/>
       </a:prstGeom>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6833,6 +5913,9 @@
       <a:prstGeom prst="rect">
         <a:avLst/>
       </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6844,10 +5927,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr bwMode="auto">
       <a:prstGeom prst="rect">
@@ -6893,7 +5976,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr bwMode="auto">
       <a:prstGeom prst="rect">
@@ -6901,18 +5984,17 @@
       </a:prstGeom>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7035,8 +6117,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7177,7 +6259,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr bwMode="auto">
       <a:prstGeom prst="rect">
@@ -7186,14 +6268,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7207,20 +6288,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7313,26 +6380,26 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>173354</xdr:rowOff>
+      <xdr:colOff>365586</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>137333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>173354</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>115512</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>119321</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="415948572" name=""/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7928609" y="7671434"/>
-        <a:ext cx="7351394" cy="2743199"/>
+        <a:off x="4501168" y="8817205"/>
+        <a:ext cx="4557452" cy="2683625"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7345,26 +6412,26 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>39218</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>47847</xdr:rowOff>
+      <xdr:colOff>181840</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>59054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>25884</xdr:colOff>
+      <xdr:colOff>188768</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>47847</xdr:rowOff>
+      <xdr:rowOff>17491</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvPr id="509468725" name=""/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="39218" y="7728807"/>
-        <a:ext cx="7743825" cy="2743199"/>
+        <a:off x="181840" y="8919036"/>
+        <a:ext cx="4142508" cy="2479963"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8295,169 +7362,169 @@
       <c r="D5" s="16"/>
     </row>
     <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <f>100+10*$G$2</f>
         <v>140</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <f>110+10*$G$2</f>
         <v>150</v>
       </c>
     </row>
     <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <f>150+10*$G$2</f>
         <v>190</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <f>170+5*$G$2</f>
         <v>190</v>
       </c>
     </row>
     <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <f>160+15*$G$2</f>
         <v>220</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <f>170+7*$G$2</f>
         <v>198</v>
       </c>
     </row>
     <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <f>170+15*$G$2</f>
         <v>230</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <f>170+10*$G$2</f>
         <v>210</v>
       </c>
     </row>
     <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <f>180+20*$G$2</f>
         <v>260</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <f>170+12*$G$2</f>
         <v>218</v>
       </c>
     </row>
     <row r="11" ht="14.4" customHeight="1">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>7</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>7</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" ht="14.4" customHeight="1">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="20">
         <v>10</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" ht="14.4" customHeight="1">
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" ht="14.4" customHeight="1">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="D14" s="5"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" ht="14.4" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" ht="14.4" customHeight="1">
       <c r="A16" s="11" t="s">
@@ -8466,135 +7533,135 @@
       <c r="B16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="23">
         <f>SUM(C6:C10)/5</f>
         <v>208</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="24">
         <f>SUM(D6:D10)/5</f>
         <v>193.19999999999999</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" ht="14.4" customHeight="1">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="25">
         <f>C16/C4*100</f>
         <v>26</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="26">
         <f>D16/D4*100</f>
         <v>21.954545454545453</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" ht="14.4" customHeight="1">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="27">
         <f>C4/C16</f>
         <v>3.8461538461538463</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="28">
         <f>D4/D16</f>
         <v>4.5548654244306421</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
     </row>
     <row r="19">
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
     </row>
     <row r="22">
-      <c r="A22" s="41"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="42"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" s="41"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="42"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
     </row>
     <row r="24">
-      <c r="A24" s="41"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="42"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -8603,16 +7670,16 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="42"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8628,7 +7695,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -8636,181 +7703,181 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="A39" zoomScale="85" workbookViewId="0">
       <selection activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="46" width="34.00390625"/>
-    <col customWidth="1" min="2" max="2" style="46" width="28.00390625"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" style="46" width="17.22265625"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" style="46" width="19.76171875"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" style="46" width="15.953125"/>
-    <col bestFit="1" customWidth="1" min="6" max="11" style="46" width="9.6015625"/>
-    <col min="12" max="16384" style="46" width="8.88671875"/>
+    <col customWidth="1" min="1" max="1" style="32" width="34.00390625"/>
+    <col customWidth="1" min="2" max="2" style="32" width="28.00390625"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="32" width="17.22265625"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" style="32" width="19.76171875"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="32" width="15.953125"/>
+    <col bestFit="1" customWidth="1" min="6" max="11" style="32" width="9.6015625"/>
+    <col min="12" max="16384" style="32" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.4" customHeight="1"/>
     <row r="2" ht="28.199999999999999" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="41">
         <v>13</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="42">
         <f>C5*C3+(1-C5)*C4</f>
         <v>17.199999999999999</v>
       </c>
     </row>
     <row r="4" ht="14.4" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="52" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="45">
         <v>20</v>
       </c>
     </row>
     <row r="5" ht="28.800000000000001" customHeight="1">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="54">
+      <c r="B5" s="46"/>
+      <c r="C5" s="45">
         <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="45">
         <f>-90-5*$F$2</f>
         <v>-110</v>
       </c>
     </row>
     <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="45">
         <f>-60-3*$F$2</f>
         <v>-72</v>
       </c>
     </row>
     <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="52" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="45">
         <f>40+$F$2</f>
         <v>44</v>
       </c>
     </row>
     <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="59"/>
-      <c r="B9" s="52" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="45">
         <f>60+$F$2</f>
         <v>64</v>
       </c>
     </row>
     <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="45">
         <f>30+5*$F$2</f>
         <v>50</v>
       </c>
     </row>
     <row r="11" ht="14.4" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="45">
         <f>40+5*$F$2</f>
         <v>60</v>
       </c>
     </row>
     <row r="12" ht="14.4" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="45">
         <f>45+5*$F$2</f>
         <v>65</v>
       </c>
     </row>
     <row r="13" ht="14.4" customHeight="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="45">
         <f t="shared" ref="C13:C14" si="0">50+10*$F$2</f>
         <v>90</v>
       </c>
     </row>
     <row r="14" ht="14.4" customHeight="1">
-      <c r="A14" s="59"/>
-      <c r="B14" s="52" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="45">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
     <row r="15" ht="14.4" customHeight="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="45">
         <f>40+10*$F$2</f>
         <v>80</v>
       </c>
     </row>
     <row r="16" ht="14.4" customHeight="1">
-      <c r="A16" s="60"/>
-      <c r="B16" s="61" t="s">
+      <c r="A16" s="47"/>
+      <c r="B16" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="49">
         <f>30+15*$F$2</f>
         <v>90</v>
       </c>
@@ -8818,850 +7885,868 @@
     <row r="17" ht="14.4" customHeight="1"/>
     <row r="18" ht="14.4" customHeight="1"/>
     <row r="19" ht="14.4" customHeight="1">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="66" t="s">
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="68"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
     </row>
     <row r="20" ht="14.4" customHeight="1">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="75"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
     </row>
     <row r="21" ht="14.4" customHeight="1">
-      <c r="A21" s="76"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="78" t="s">
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="79" t="s">
+      <c r="D21" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="79" t="s">
+      <c r="E21" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="80" t="s">
+      <c r="F21" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="80" t="s">
+      <c r="G21" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="80" t="s">
+      <c r="H21" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="80" t="s">
+      <c r="I21" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="80" t="s">
+      <c r="J21" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="81" t="s">
+      <c r="K21" s="51" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="1">
-      <c r="A22" s="82">
+      <c r="A22" s="52">
         <v>1</v>
       </c>
-      <c r="B22" s="83">
+      <c r="B22" s="52">
         <v>2</v>
       </c>
-      <c r="C22" s="84">
+      <c r="C22" s="53">
         <v>3</v>
       </c>
-      <c r="D22" s="84">
+      <c r="D22" s="53">
         <v>4</v>
       </c>
-      <c r="E22" s="85">
+      <c r="E22" s="54">
         <v>5</v>
       </c>
-      <c r="F22" s="84">
+      <c r="F22" s="53">
         <v>6</v>
       </c>
-      <c r="G22" s="86">
+      <c r="G22" s="55">
         <v>7</v>
       </c>
-      <c r="H22" s="86">
+      <c r="H22" s="55">
         <v>8</v>
       </c>
-      <c r="I22" s="86">
+      <c r="I22" s="55">
         <v>9</v>
       </c>
-      <c r="J22" s="86">
+      <c r="J22" s="55">
         <v>10</v>
       </c>
-      <c r="K22" s="87">
+      <c r="K22" s="55">
         <v>11</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="1">
-      <c r="A23" s="88">
+      <c r="A23" s="56">
         <v>0</v>
       </c>
-      <c r="B23" s="52">
+      <c r="B23" s="44">
         <f t="shared" ref="B23:B33" si="1">C6</f>
         <v>-110</v>
       </c>
-      <c r="C23" s="89">
-        <f t="shared" ref="C23:C33" si="2">1/(1+0.12)^A47</f>
+      <c r="C23" s="57">
+        <f>1/(1+0.13)^A47</f>
         <v>1</v>
       </c>
-      <c r="D23" s="89">
-        <f t="shared" ref="D23:D33" si="3">1/(1+0.18)^A47</f>
+      <c r="D23" s="57">
+        <f>1/(1+0.2)^A47</f>
         <v>1</v>
       </c>
-      <c r="E23" s="89">
-        <f t="shared" ref="E23:E33" si="4">1/(1+0.15)^A47</f>
+      <c r="E23" s="57">
+        <f>1/(1+0.172)^A47</f>
         <v>1</v>
       </c>
-      <c r="F23" s="89">
-        <f t="shared" ref="F23:F33" si="5">B23*C23</f>
+      <c r="F23" s="57">
+        <f t="shared" ref="F23:F33" si="2">B23*C23</f>
         <v>-110</v>
       </c>
-      <c r="G23" s="90">
-        <f t="shared" ref="G23:G33" si="6">B23*D23</f>
+      <c r="G23" s="58">
+        <f t="shared" ref="G23:G33" si="3">B23*D23</f>
         <v>-110</v>
       </c>
-      <c r="H23" s="90">
-        <f t="shared" ref="H23:H33" si="7">B23*E23</f>
+      <c r="H23" s="58">
+        <f t="shared" ref="H23:H33" si="4">B23*E23</f>
         <v>-110</v>
       </c>
-      <c r="I23" s="90">
+      <c r="I23" s="58">
         <f>F23</f>
         <v>-110</v>
       </c>
-      <c r="J23" s="90">
+      <c r="J23" s="58">
         <f>G23</f>
         <v>-110</v>
       </c>
-      <c r="K23" s="91">
+      <c r="K23" s="59">
         <f>H23</f>
         <v>-110</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="1">
-      <c r="A24" s="88">
+      <c r="A24" s="56">
         <v>1</v>
       </c>
-      <c r="B24" s="52">
+      <c r="B24" s="44">
         <f t="shared" si="1"/>
         <v>-72</v>
       </c>
-      <c r="C24" s="89">
+      <c r="C24" s="57">
+        <f>1/(1+0.13)^A48</f>
+        <v>0.88495575221238942</v>
+      </c>
+      <c r="D24" s="57">
+        <f>1/(1+0.2)^A48</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E24" s="57">
+        <f>1/(1+0.172)^A48</f>
+        <v>0.85324232081911267</v>
+      </c>
+      <c r="F24" s="57">
         <f t="shared" si="2"/>
-        <v>0.89285714285714279</v>
-      </c>
-      <c r="D24" s="89">
+        <v>-63.716814159292042</v>
+      </c>
+      <c r="G24" s="58">
         <f t="shared" si="3"/>
-        <v>0.84745762711864414</v>
-      </c>
-      <c r="E24" s="89">
+        <v>-60</v>
+      </c>
+      <c r="H24" s="58">
         <f t="shared" si="4"/>
-        <v>0.86956521739130443</v>
-      </c>
-      <c r="F24" s="89">
-        <f t="shared" si="5"/>
-        <v>-64.285714285714278</v>
-      </c>
-      <c r="G24" s="90">
-        <f t="shared" si="6"/>
-        <v>-61.016949152542381</v>
-      </c>
-      <c r="H24" s="90">
-        <f t="shared" si="7"/>
-        <v>-62.608695652173921</v>
-      </c>
-      <c r="I24" s="90">
-        <f t="shared" ref="I24:I25" si="8">I23+F24</f>
-        <v>-174.28571428571428</v>
-      </c>
-      <c r="J24" s="90">
-        <f>J23+G24</f>
-        <v>-171.0169491525424</v>
-      </c>
-      <c r="K24" s="91">
-        <f>K23+H24</f>
-        <v>-172.60869565217394</v>
+        <v>-61.43344709897611</v>
+      </c>
+      <c r="I24" s="58">
+        <f t="shared" ref="I24:I33" si="5">I23+F24</f>
+        <v>-173.71681415929203</v>
+      </c>
+      <c r="J24" s="58">
+        <f t="shared" ref="J24:J33" si="6">J23+G24</f>
+        <v>-170</v>
+      </c>
+      <c r="K24" s="59">
+        <f t="shared" ref="K24:K33" si="7">K23+H24</f>
+        <v>-171.4334470989761</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="1">
-      <c r="A25" s="88">
+      <c r="A25" s="56">
         <v>2</v>
       </c>
-      <c r="B25" s="52">
+      <c r="B25" s="44">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="C25" s="89">
+      <c r="C25" s="57">
+        <f>1/(1+0.13)^A49</f>
+        <v>0.78314668337379612</v>
+      </c>
+      <c r="D25" s="57">
+        <f>1/(1+0.2)^A49</f>
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="E25" s="57">
+        <f>1/(1+0.172)^A49</f>
+        <v>0.72802245803678556</v>
+      </c>
+      <c r="F25" s="57">
         <f t="shared" si="2"/>
-        <v>0.79719387755102034</v>
-      </c>
-      <c r="D25" s="89">
+        <v>34.458454068447026</v>
+      </c>
+      <c r="G25" s="58">
         <f t="shared" si="3"/>
-        <v>0.71818442976156283</v>
-      </c>
-      <c r="E25" s="89">
+        <v>30.555555555555554</v>
+      </c>
+      <c r="H25" s="58">
         <f t="shared" si="4"/>
-        <v>0.7561436672967865</v>
-      </c>
-      <c r="F25" s="89">
+        <v>32.032988153618561</v>
+      </c>
+      <c r="I25" s="58">
         <f t="shared" si="5"/>
-        <v>35.076530612244895</v>
-      </c>
-      <c r="G25" s="90">
+        <v>-139.258360090845</v>
+      </c>
+      <c r="J25" s="58">
         <f t="shared" si="6"/>
-        <v>31.600114909508765</v>
-      </c>
-      <c r="H25" s="90">
+        <v>-139.44444444444446</v>
+      </c>
+      <c r="K25" s="59">
         <f t="shared" si="7"/>
-        <v>33.270321361058606</v>
-      </c>
-      <c r="I25" s="90">
-        <f t="shared" si="8"/>
-        <v>-139.2091836734694</v>
-      </c>
-      <c r="J25" s="90">
-        <f>J24+G25</f>
-        <v>-139.41683424303363</v>
-      </c>
-      <c r="K25" s="91">
-        <f>K24+H25</f>
-        <v>-139.33837429111531</v>
+        <v>-139.40045894535754</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="1">
-      <c r="A26" s="88">
+      <c r="A26" s="56">
         <v>3</v>
       </c>
-      <c r="B26" s="52">
+      <c r="B26" s="44">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="C26" s="89">
+      <c r="C26" s="57">
+        <f>1/(1+0.13)^A50</f>
+        <v>0.69305016227769567</v>
+      </c>
+      <c r="D26" s="57">
+        <f>1/(1+0.2)^A50</f>
+        <v>0.57870370370370383</v>
+      </c>
+      <c r="E26" s="57">
+        <f>1/(1+0.172)^A50</f>
+        <v>0.62117957170374205</v>
+      </c>
+      <c r="F26" s="57">
         <f t="shared" si="2"/>
-        <v>0.71178024781341087</v>
-      </c>
-      <c r="D26" s="89">
+        <v>44.355210385772523</v>
+      </c>
+      <c r="G26" s="58">
         <f t="shared" si="3"/>
-        <v>0.6086308726792905</v>
-      </c>
-      <c r="E26" s="89">
+        <v>37.037037037037045</v>
+      </c>
+      <c r="H26" s="58">
         <f t="shared" si="4"/>
-        <v>0.65751623243198831</v>
-      </c>
-      <c r="F26" s="89">
+        <v>39.755492589039491</v>
+      </c>
+      <c r="I26" s="58">
         <f t="shared" si="5"/>
-        <v>45.553935860058296</v>
-      </c>
-      <c r="G26" s="90">
+        <v>-94.903149705072479</v>
+      </c>
+      <c r="J26" s="58">
         <f t="shared" si="6"/>
-        <v>38.952375851474592</v>
-      </c>
-      <c r="H26" s="90">
+        <v>-102.40740740740742</v>
+      </c>
+      <c r="K26" s="59">
         <f t="shared" si="7"/>
-        <v>42.081038875647252</v>
-      </c>
-      <c r="I26" s="90">
-        <f>I25+F26</f>
-        <v>-93.655247813411108</v>
-      </c>
-      <c r="J26" s="90">
-        <f>J25+G26</f>
-        <v>-100.46445839155905</v>
-      </c>
-      <c r="K26" s="91">
-        <f>K25+H26</f>
-        <v>-97.257335415468063</v>
+        <v>-99.644966356318051</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="1">
-      <c r="A27" s="88">
+      <c r="A27" s="56">
         <v>4</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B27" s="44">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="C27" s="89">
+      <c r="C27" s="57">
+        <f>1/(1+0.13)^A51</f>
+        <v>0.61331872767937679</v>
+      </c>
+      <c r="D27" s="57">
+        <f>1/(1+0.2)^A51</f>
+        <v>0.48225308641975312</v>
+      </c>
+      <c r="E27" s="57">
+        <f>1/(1+0.172)^A51</f>
+        <v>0.53001669940592322</v>
+      </c>
+      <c r="F27" s="57">
         <f t="shared" si="2"/>
-        <v>0.6355180784048311</v>
-      </c>
-      <c r="D27" s="89">
+        <v>30.665936383968841</v>
+      </c>
+      <c r="G27" s="58">
         <f t="shared" si="3"/>
-        <v>0.51578887515194116</v>
-      </c>
-      <c r="E27" s="89">
-        <f>1/(1+0.15)^A51</f>
-        <v>0.57175324559303342</v>
-      </c>
-      <c r="F27" s="89">
+        <v>24.112654320987655</v>
+      </c>
+      <c r="H27" s="58">
+        <f t="shared" si="4"/>
+        <v>26.500834970296161</v>
+      </c>
+      <c r="I27" s="58">
         <f t="shared" si="5"/>
-        <v>31.775903920241554</v>
-      </c>
-      <c r="G27" s="90">
+        <v>-64.237213321103638</v>
+      </c>
+      <c r="J27" s="58">
         <f t="shared" si="6"/>
-        <v>25.789443757597059</v>
-      </c>
-      <c r="H27" s="90">
+        <v>-78.29475308641976</v>
+      </c>
+      <c r="K27" s="59">
         <f t="shared" si="7"/>
-        <v>28.587662279651671</v>
-      </c>
-      <c r="I27" s="90">
-        <f>I26+F27</f>
-        <v>-61.879343893169555</v>
-      </c>
-      <c r="J27" s="90">
-        <f>J26+G27</f>
-        <v>-74.675014633961993</v>
-      </c>
-      <c r="K27" s="91">
-        <f>K26+H27</f>
-        <v>-68.669673135816396</v>
+        <v>-73.144131386021883</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="1">
-      <c r="A28" s="88">
+      <c r="A28" s="56">
         <v>5</v>
       </c>
-      <c r="B28" s="52">
+      <c r="B28" s="44">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="C28" s="89">
+      <c r="C28" s="57">
+        <f>1/(1+0.13)^A52</f>
+        <v>0.5427599359994485</v>
+      </c>
+      <c r="D28" s="57">
+        <f>1/(1+0.2)^A52</f>
+        <v>0.40187757201646102</v>
+      </c>
+      <c r="E28" s="57">
+        <f>1/(1+0.172)^A52</f>
+        <v>0.45223267867399597</v>
+      </c>
+      <c r="F28" s="57">
         <f t="shared" si="2"/>
-        <v>0.56742685571859919</v>
-      </c>
-      <c r="D28" s="89">
+        <v>32.565596159966908</v>
+      </c>
+      <c r="G28" s="58">
         <f t="shared" si="3"/>
-        <v>0.43710921623045862</v>
-      </c>
-      <c r="E28" s="89">
+        <v>24.112654320987662</v>
+      </c>
+      <c r="H28" s="58">
         <f t="shared" si="4"/>
-        <v>0.49717673529828987</v>
-      </c>
-      <c r="F28" s="89">
+        <v>27.133960720439759</v>
+      </c>
+      <c r="I28" s="58">
         <f t="shared" si="5"/>
-        <v>34.045611343115951</v>
-      </c>
-      <c r="G28" s="90">
+        <v>-31.67161716113673</v>
+      </c>
+      <c r="J28" s="58">
         <f t="shared" si="6"/>
-        <v>26.226552973827516</v>
-      </c>
-      <c r="H28" s="90">
+        <v>-54.182098765432102</v>
+      </c>
+      <c r="K28" s="59">
         <f t="shared" si="7"/>
-        <v>29.830604117897394</v>
-      </c>
-      <c r="I28" s="90">
-        <f>I27+F28</f>
-        <v>-27.833732550053604</v>
-      </c>
-      <c r="J28" s="90">
-        <f>J27+G28</f>
-        <v>-48.448461660134477</v>
-      </c>
-      <c r="K28" s="91">
-        <f>K27+H28</f>
-        <v>-38.839069017919002</v>
+        <v>-46.010170665582123</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="1">
-      <c r="A29" s="88">
+      <c r="A29" s="56">
         <v>6</v>
       </c>
-      <c r="B29" s="52">
+      <c r="B29" s="44">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="C29" s="89">
+      <c r="C29" s="57">
+        <f>1/(1+0.13)^A53</f>
+        <v>0.48031852743314035</v>
+      </c>
+      <c r="D29" s="57">
+        <f>1/(1+0.2)^A53</f>
+        <v>0.33489797668038418</v>
+      </c>
+      <c r="E29" s="57">
+        <f>1/(1+0.172)^A53</f>
+        <v>0.3858640603020444</v>
+      </c>
+      <c r="F29" s="57">
         <f t="shared" si="2"/>
-        <v>0.50663112117732056</v>
-      </c>
-      <c r="D29" s="89">
+        <v>31.220704283154124</v>
+      </c>
+      <c r="G29" s="58">
         <f t="shared" si="3"/>
-        <v>0.37043153917835481</v>
-      </c>
-      <c r="E29" s="89">
+        <v>21.768368484224972</v>
+      </c>
+      <c r="H29" s="58">
         <f t="shared" si="4"/>
-        <v>0.43232759591155645</v>
-      </c>
-      <c r="F29" s="89">
+        <v>25.081163919632885</v>
+      </c>
+      <c r="I29" s="58">
         <f t="shared" si="5"/>
-        <v>32.931022876525837</v>
-      </c>
-      <c r="G29" s="90">
+        <v>-0.45091287798260637</v>
+      </c>
+      <c r="J29" s="58">
         <f t="shared" si="6"/>
-        <v>24.078050046593063</v>
-      </c>
-      <c r="H29" s="90">
+        <v>-32.41373028120713</v>
+      </c>
+      <c r="K29" s="59">
         <f t="shared" si="7"/>
-        <v>28.101293734251168</v>
-      </c>
-      <c r="I29" s="90">
-        <f>I28+F29</f>
-        <v>5.0972903264722333</v>
-      </c>
-      <c r="J29" s="90">
-        <f>J28+G29</f>
-        <v>-24.370411613541414</v>
-      </c>
-      <c r="K29" s="91">
-        <f>K28+H29</f>
-        <v>-10.737775283667833</v>
+        <v>-20.929006745949238</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="1">
-      <c r="A30" s="88">
+      <c r="A30" s="56">
         <v>7</v>
       </c>
-      <c r="B30" s="52">
+      <c r="B30" s="44">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="C30" s="89">
+      <c r="C30" s="57">
+        <f>1/(1+0.13)^A54</f>
+        <v>0.42506064374614194</v>
+      </c>
+      <c r="D30" s="57">
+        <f>1/(1+0.2)^A54</f>
+        <v>0.27908164723365347</v>
+      </c>
+      <c r="E30" s="57">
+        <f>1/(1+0.172)^A54</f>
+        <v>0.32923554633280239</v>
+      </c>
+      <c r="F30" s="57">
         <f t="shared" si="2"/>
-        <v>0.45234921533689337</v>
-      </c>
-      <c r="D30" s="89">
+        <v>38.255457937152777</v>
+      </c>
+      <c r="G30" s="58">
         <f t="shared" si="3"/>
-        <v>0.31392503320199566</v>
-      </c>
-      <c r="E30" s="89">
+        <v>25.117348251028812</v>
+      </c>
+      <c r="H30" s="58">
         <f t="shared" si="4"/>
-        <v>0.37593703992309263</v>
-      </c>
-      <c r="F30" s="89">
+        <v>29.631199169952215</v>
+      </c>
+      <c r="I30" s="58">
         <f t="shared" si="5"/>
-        <v>40.711429380320403</v>
-      </c>
-      <c r="G30" s="90">
+        <v>37.804545059170167</v>
+      </c>
+      <c r="J30" s="58">
         <f t="shared" si="6"/>
-        <v>28.253252988179611</v>
-      </c>
-      <c r="H30" s="90">
+        <v>-7.296382030178318</v>
+      </c>
+      <c r="K30" s="59">
         <f t="shared" si="7"/>
-        <v>33.834333593078334</v>
-      </c>
-      <c r="I30" s="90">
-        <f>I29+F30</f>
-        <v>45.808719706792637</v>
-      </c>
-      <c r="J30" s="90">
-        <f>J29+G30</f>
-        <v>3.8828413746381969</v>
-      </c>
-      <c r="K30" s="91">
-        <f>K29+H30</f>
-        <v>23.096558309410501</v>
+        <v>8.7021924240029769</v>
       </c>
     </row>
     <row r="31" ht="14.4" customHeight="1">
-      <c r="A31" s="88">
+      <c r="A31" s="56">
         <v>8</v>
       </c>
-      <c r="B31" s="52">
+      <c r="B31" s="44">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="C31" s="89">
+      <c r="C31" s="57">
+        <f>1/(1+0.13)^A55</f>
+        <v>0.37615986172224952</v>
+      </c>
+      <c r="D31" s="57">
+        <f>1/(1+0.2)^A55</f>
+        <v>0.23256803936137793</v>
+      </c>
+      <c r="E31" s="57">
+        <f>1/(1+0.172)^A55</f>
+        <v>0.28091770164914881</v>
+      </c>
+      <c r="F31" s="57">
         <f t="shared" si="2"/>
-        <v>0.40388322797936904</v>
-      </c>
-      <c r="D31" s="89">
+        <v>33.854387555002454</v>
+      </c>
+      <c r="G31" s="58">
         <f t="shared" si="3"/>
-        <v>0.26603816373050476</v>
-      </c>
-      <c r="E31" s="89">
+        <v>20.931123542524013</v>
+      </c>
+      <c r="H31" s="58">
         <f t="shared" si="4"/>
-        <v>0.32690177384616753</v>
-      </c>
-      <c r="F31" s="89">
+        <v>25.282593148423391</v>
+      </c>
+      <c r="I31" s="58">
         <f t="shared" si="5"/>
-        <v>36.349490518143213</v>
-      </c>
-      <c r="G31" s="90">
+        <v>71.658932614172613</v>
+      </c>
+      <c r="J31" s="58">
         <f t="shared" si="6"/>
-        <v>23.943434735745427</v>
-      </c>
-      <c r="H31" s="90">
+        <v>13.634741512345695</v>
+      </c>
+      <c r="K31" s="59">
         <f t="shared" si="7"/>
-        <v>29.421159646155079</v>
-      </c>
-      <c r="I31" s="90">
-        <f>I30+F31</f>
-        <v>82.158210224935857</v>
-      </c>
-      <c r="J31" s="90">
-        <f>J30+G31</f>
-        <v>27.826276110383624</v>
-      </c>
-      <c r="K31" s="91">
-        <f>K30+H31</f>
-        <v>52.51771795556558</v>
+        <v>33.984785572426368</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="1">
-      <c r="A32" s="88">
+      <c r="A32" s="56">
         <v>9</v>
       </c>
-      <c r="B32" s="52">
+      <c r="B32" s="44">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="C32" s="89">
+      <c r="C32" s="57">
+        <f>1/(1+0.13)^A56</f>
+        <v>0.33288483338252173</v>
+      </c>
+      <c r="D32" s="57">
+        <f>1/(1+0.2)^A56</f>
+        <v>0.19380669946781492</v>
+      </c>
+      <c r="E32" s="57">
+        <f>1/(1+0.172)^A56</f>
+        <v>0.23969087171429079</v>
+      </c>
+      <c r="F32" s="57">
         <f t="shared" si="2"/>
-        <v>0.36061002498157946</v>
-      </c>
-      <c r="D32" s="89">
+        <v>26.630786670601736</v>
+      </c>
+      <c r="G32" s="58">
         <f t="shared" si="3"/>
-        <v>0.22545607095805489</v>
-      </c>
-      <c r="E32" s="89">
+        <v>15.504535957425194</v>
+      </c>
+      <c r="H32" s="58">
         <f t="shared" si="4"/>
-        <v>0.28426241204014568</v>
-      </c>
-      <c r="F32" s="89">
+        <v>19.175269737143264</v>
+      </c>
+      <c r="I32" s="58">
         <f t="shared" si="5"/>
-        <v>28.848801998526355</v>
-      </c>
-      <c r="G32" s="90">
+        <v>98.28971928477435</v>
+      </c>
+      <c r="J32" s="58">
         <f t="shared" si="6"/>
-        <v>18.036485676644393</v>
-      </c>
-      <c r="H32" s="90">
+        <v>29.139277469770889</v>
+      </c>
+      <c r="K32" s="59">
         <f t="shared" si="7"/>
-        <v>22.740992963211653</v>
-      </c>
-      <c r="I32" s="90">
-        <f>I31+F32</f>
-        <v>111.00701222346221</v>
-      </c>
-      <c r="J32" s="90">
-        <f>J31+G32</f>
-        <v>45.86276178702802</v>
-      </c>
-      <c r="K32" s="91">
-        <f>K31+H32</f>
-        <v>75.25871091877724</v>
+        <v>53.160055309569628</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="1">
-      <c r="A33" s="92">
+      <c r="A33" s="60">
         <v>10</v>
       </c>
-      <c r="B33" s="61">
+      <c r="B33" s="48">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="C33" s="93">
+      <c r="C33" s="57">
+        <f>1/(1+0.13)^A57</f>
+        <v>0.29458834812612544</v>
+      </c>
+      <c r="D33" s="57">
+        <f>1/(1+0.2)^A57</f>
+        <v>0.16150558288984579</v>
+      </c>
+      <c r="E33" s="57">
+        <f>1/(1+0.172)^A57</f>
+        <v>0.20451439566065771</v>
+      </c>
+      <c r="F33" s="61">
         <f t="shared" si="2"/>
-        <v>0.32197323659069593</v>
-      </c>
-      <c r="D33" s="93">
+        <v>26.512951331351289</v>
+      </c>
+      <c r="G33" s="62">
         <f t="shared" si="3"/>
-        <v>0.19106446691360587</v>
-      </c>
-      <c r="E33" s="93">
+        <v>14.535502460086121</v>
+      </c>
+      <c r="H33" s="62">
         <f t="shared" si="4"/>
-        <v>0.24718470612186585</v>
-      </c>
-      <c r="F33" s="93">
+        <v>18.406295609459193</v>
+      </c>
+      <c r="I33" s="62">
         <f t="shared" si="5"/>
-        <v>28.977591293162632</v>
-      </c>
-      <c r="G33" s="94">
+        <v>124.80267061612564</v>
+      </c>
+      <c r="J33" s="62">
         <f t="shared" si="6"/>
-        <v>17.19580202222453</v>
-      </c>
-      <c r="H33" s="94">
+        <v>43.67477992985701</v>
+      </c>
+      <c r="K33" s="63">
         <f t="shared" si="7"/>
-        <v>22.246623550967929</v>
-      </c>
-      <c r="I33" s="94">
-        <f>I32+F33</f>
-        <v>139.98460351662484</v>
-      </c>
-      <c r="J33" s="94">
-        <f>J32+G33</f>
-        <v>63.058563809252547</v>
-      </c>
-      <c r="K33" s="95">
-        <f>K32+H33</f>
-        <v>97.505334469745165</v>
+        <v>71.566350919028821</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="1"/>
     <row r="35" ht="14.4" customHeight="1">
-      <c r="A35" s="46"/>
+      <c r="A35" s="32"/>
     </row>
     <row r="36" ht="14.4" customHeight="1">
-      <c r="A36" s="96" t="s">
+      <c r="A36" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="97" t="s">
+      <c r="B36" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="98" t="s">
+      <c r="C36" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="99"/>
-      <c r="E36" s="100"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="66"/>
     </row>
     <row r="37" ht="14.4" customHeight="1">
-      <c r="A37" s="101"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="103" t="s">
+      <c r="A37" s="67"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="103" t="s">
+      <c r="D37" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="104" t="s">
+      <c r="E37" s="69" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="38" ht="29.399999999999999" customHeight="1">
-      <c r="A38" s="105" t="s">
+      <c r="A38" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="106" t="s">
+      <c r="B38" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="86">
+      <c r="C38" s="72">
         <f>I33</f>
-        <v>139.98460351662484</v>
-      </c>
-      <c r="D38" s="86">
+        <v>124.80267061612564</v>
+      </c>
+      <c r="D38" s="72">
         <f>J33</f>
-        <v>63.058563809252547</v>
-      </c>
-      <c r="E38" s="87">
+        <v>43.67477992985701</v>
+      </c>
+      <c r="E38" s="73">
         <f>K33</f>
-        <v>97.505334469745165</v>
+        <v>71.566350919028821</v>
       </c>
     </row>
     <row r="39" ht="29.399999999999999" customHeight="1">
-      <c r="A39" s="107" t="s">
+      <c r="A39" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="108" t="s">
+      <c r="B39" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="90">
+      <c r="C39" s="58">
         <f>SUM(F25:F33)/SUM(F23:F24)*(-1)</f>
-        <v>1.8031903480462084</v>
-      </c>
-      <c r="D39" s="90">
+        <v>1.718425969415293</v>
+      </c>
+      <c r="D39" s="58">
         <f>SUM(G25:G33)/SUM(G23:G24)*(-1)</f>
-        <v>1.3687269836219922</v>
-      </c>
-      <c r="E39" s="91">
+        <v>1.2569104701756295</v>
+      </c>
+      <c r="E39" s="59">
         <f>SUM(H25:H33)/SUM(H23:H24)*(-1)</f>
-        <v>1.5648923659456264</v>
+        <v>1.4174585072521491</v>
       </c>
     </row>
     <row r="40" ht="29.399999999999999" customHeight="1">
-      <c r="A40" s="107" t="s">
+      <c r="A40" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="109" t="s">
+      <c r="B40" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="90">
-        <f>A28+ABS(I28)/(ABS(I28)+I29)</f>
-        <v>5.8452131187790792</v>
-      </c>
-      <c r="D40" s="90">
-        <f>A29+ABS(J29)/(ABS(J29)+J30)</f>
-        <v>6.8625701126782577</v>
-      </c>
-      <c r="E40" s="91">
+      <c r="C40" s="58">
+        <f>A29+ABS(I29)/(ABS(I29)+I30)</f>
+        <v>6.0117868900882945</v>
+      </c>
+      <c r="D40" s="58">
+        <f>A30+ABS(J30)/(ABS(J30)+J31)</f>
+        <v>7.3485900799999992</v>
+      </c>
+      <c r="E40" s="59">
         <f>A29+ABS(K29)/(ABS(K29)+K30)</f>
-        <v>6.3173632858506936</v>
+        <v>6.7063165626847958</v>
       </c>
     </row>
     <row r="41" ht="29.399999999999999" customHeight="1">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="111" t="s">
+      <c r="B41" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="112">
+      <c r="C41" s="48">
         <f>C3-(I33*(C4-C3))/(J33-I33)</f>
-        <v>25.738108296539082</v>
-      </c>
-      <c r="D41" s="113"/>
-      <c r="E41" s="114"/>
-    </row>
-    <row r="42" ht="14.4" customHeight="1"/>
+        <v>23.768413759101279</v>
+      </c>
+      <c r="D41" s="48"/>
+      <c r="E41" s="49"/>
+    </row>
+    <row r="42" ht="14.4" customHeight="1">
+      <c r="C42" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="43" ht="14.4" customHeight="1">
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="H43" s="115" t="s">
-        <v>72</v>
-      </c>
-      <c r="I43" s="116"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="116"/>
-      <c r="M43" s="116"/>
-      <c r="N43" s="117"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="H43" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="41"/>
     </row>
     <row r="44" ht="14.4" customHeight="1">
-      <c r="C44" s="46">
-        <f t="shared" ref="C44:C45" si="9">C3</f>
+      <c r="C44" s="32">
+        <v>30</v>
+      </c>
+      <c r="D44" s="80">
+        <v>0</v>
+      </c>
+      <c r="E44" s="32"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="45"/>
+    </row>
+    <row r="45" ht="14.4" customHeight="1">
+      <c r="C45" s="32">
+        <f>$C$4</f>
+        <v>20</v>
+      </c>
+      <c r="D45" s="80">
+        <f>$D$38</f>
+        <v>43.67477992985701</v>
+      </c>
+      <c r="H45" s="56"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="45"/>
+    </row>
+    <row r="46" ht="14.4" customHeight="1">
+      <c r="C46" s="44">
+        <f>$C$3</f>
         <v>13</v>
       </c>
-      <c r="D44" s="46">
-        <f>C38</f>
-        <v>139.98460351662484</v>
-      </c>
-      <c r="H44" s="118"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="119"/>
-    </row>
-    <row r="45" ht="14.4" customHeight="1">
-      <c r="C45" s="46">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="D45" s="46">
-        <f>D38</f>
-        <v>63.058563809252547</v>
-      </c>
-      <c r="H45" s="118"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="119"/>
-    </row>
-    <row r="46" ht="14.4" customHeight="1">
-      <c r="H46" s="118"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="119"/>
+      <c r="D46" s="81">
+        <f>$C$38</f>
+        <v>124.80267061612564</v>
+      </c>
+      <c r="H46" s="56"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="45"/>
     </row>
     <row r="47" ht="14.4" customHeight="1">
-      <c r="A47" s="46">
+      <c r="A47" s="82">
         <v>0</v>
       </c>
-      <c r="H47" s="118"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="119"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="45"/>
     </row>
     <row r="48" ht="14.4" customHeight="1">
-      <c r="A48" s="46">
+      <c r="A48" s="82">
         <v>1</v>
       </c>
-      <c r="H48" s="118"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="119"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="45"/>
     </row>
     <row r="49" ht="14.4" customHeight="1">
-      <c r="A49" s="46">
+      <c r="A49" s="82">
         <v>2</v>
       </c>
-      <c r="H49" s="118"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="119"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="45"/>
     </row>
     <row r="50" ht="14.4" customHeight="1">
-      <c r="A50" s="46">
+      <c r="A50" s="82">
         <v>3</v>
       </c>
-      <c r="H50" s="118"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="119"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="45"/>
     </row>
     <row r="51" ht="14.4" customHeight="1">
-      <c r="A51" s="46">
+      <c r="A51" s="82">
         <v>4</v>
       </c>
-      <c r="H51" s="120"/>
-      <c r="I51" s="121"/>
-      <c r="J51" s="121"/>
-      <c r="K51" s="121"/>
-      <c r="L51" s="121"/>
-      <c r="M51" s="121"/>
-      <c r="N51" s="122"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="49"/>
     </row>
     <row r="52" ht="14.4" customHeight="1">
-      <c r="A52" s="46">
+      <c r="A52" s="82">
         <v>5</v>
       </c>
     </row>
     <row r="53" ht="14.4" customHeight="1">
-      <c r="A53" s="46">
+      <c r="A53" s="82">
         <v>6</v>
       </c>
     </row>
     <row r="54" ht="14.4" customHeight="1">
-      <c r="A54" s="46">
+      <c r="A54" s="82">
         <v>7</v>
       </c>
     </row>
     <row r="55" ht="14.4" customHeight="1">
-      <c r="A55" s="46">
+      <c r="A55" s="82">
         <v>8</v>
       </c>
     </row>
     <row r="56" ht="14.4" customHeight="1">
-      <c r="A56" s="46">
+      <c r="A56" s="82">
         <v>9</v>
       </c>
     </row>
     <row r="57" ht="14.4" customHeight="1">
-      <c r="A57" s="46">
+      <c r="A57" s="82">
         <v>10</v>
       </c>
     </row>
@@ -9686,7 +8771,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9701,377 +8786,377 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="46" width="64.82421875"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" style="46" width="14.54296875"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" style="46" width="17.05078125"/>
-    <col bestFit="1" min="4" max="4" style="46" width="5.7421875"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" style="46" width="9.51171875"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" style="46" width="5.7421875"/>
-    <col bestFit="1" min="7" max="7" style="46" width="5.7421875"/>
-    <col min="8" max="16384" style="46" width="9.109375"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="44" width="64.82421875"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="44" width="14.54296875"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="44" width="17.05078125"/>
+    <col bestFit="1" min="4" max="4" style="44" width="5.7421875"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="44" width="9.51171875"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" style="44" width="5.7421875"/>
+    <col bestFit="1" min="7" max="7" style="44" width="5.7421875"/>
+    <col min="8" max="16384" style="44" width="9.109375"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="123" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="124"/>
+      <c r="A1" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="127" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="128" t="s">
+      <c r="E2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="129">
+      <c r="F2" s="87">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="131">
+      <c r="A3" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90">
         <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="132" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="54">
+      <c r="A4" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="92"/>
+      <c r="C4" s="93">
         <v>800</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="132" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="54">
+      <c r="A5" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="93">
         <f>19.3+6*$F$2</f>
         <v>43.299999999999997</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="132"/>
-      <c r="B6" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="54">
+      <c r="A6" s="91"/>
+      <c r="B6" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="93">
         <f>22.5+2*$F$2</f>
         <v>30.5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="132"/>
-      <c r="B7" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="54">
+      <c r="A7" s="91"/>
+      <c r="B7" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="93">
         <f>20.1+7*$F$2</f>
         <v>48.100000000000001</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="132"/>
-      <c r="B8" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="54">
+      <c r="A8" s="91"/>
+      <c r="B8" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="93">
         <f>24.2+2*$F$2</f>
         <v>32.200000000000003</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="132"/>
-      <c r="B9" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="54">
+      <c r="A9" s="91"/>
+      <c r="B9" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="93">
         <f>21.3+9*$F$2</f>
         <v>57.299999999999997</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="132" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="54">
+      <c r="A10" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="93">
         <f>1.23+0.15*$F$2</f>
         <v>1.8300000000000001</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="132"/>
-      <c r="B11" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="54">
+      <c r="A11" s="91"/>
+      <c r="B11" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="93">
         <f>1.37+0.04*$F$2</f>
         <v>1.53</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="132"/>
-      <c r="B12" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="54">
+      <c r="A12" s="91"/>
+      <c r="B12" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="93">
         <f>1.45+0.06*$F$2</f>
         <v>1.6899999999999999</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="132"/>
-      <c r="B13" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="54">
+      <c r="A13" s="91"/>
+      <c r="B13" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="93">
         <f>1.28+0.12*$F$2</f>
         <v>1.76</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="134"/>
-      <c r="B14" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="62">
+      <c r="A14" s="95"/>
+      <c r="B14" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="97">
         <f>1.31+0.08*$F$2</f>
         <v>1.6300000000000001</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="135" t="s">
+      <c r="A17" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="136" t="s">
+      <c r="B17" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="49"/>
+      <c r="C17" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="100"/>
     </row>
     <row r="18" ht="28.5">
-      <c r="A18" s="137"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="102" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="102" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="102" t="s">
+      <c r="A18" s="101"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="103" t="s">
+      <c r="D18" s="103" t="s">
         <v>87</v>
       </c>
+      <c r="E18" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="102" t="s">
+        <v>89</v>
+      </c>
       <c r="G18" s="104" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" ht="16.199999999999999">
-      <c r="A19" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="138" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="83">
+      <c r="A19" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="106">
         <f>C5</f>
         <v>43.299999999999997</v>
       </c>
-      <c r="D19" s="83">
+      <c r="D19" s="106">
         <f>C6</f>
         <v>30.5</v>
       </c>
-      <c r="E19" s="83">
+      <c r="E19" s="106">
         <f>C7</f>
         <v>48.100000000000001</v>
       </c>
-      <c r="F19" s="83">
+      <c r="F19" s="106">
         <f>C8</f>
         <v>32.200000000000003</v>
       </c>
-      <c r="G19" s="131">
+      <c r="G19" s="90">
         <f>C9</f>
         <v>57.299999999999997</v>
       </c>
     </row>
     <row r="20" ht="28.5">
-      <c r="A20" s="132" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="109" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="52">
+      <c r="A20" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="107" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="94">
         <f>C10</f>
         <v>1.8300000000000001</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D20" s="94">
         <f>C11</f>
         <v>1.53</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="94">
         <f>C12</f>
         <v>1.6899999999999999</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="94">
         <f>C13</f>
         <v>1.76</v>
       </c>
-      <c r="G20" s="54">
+      <c r="G20" s="93">
         <f>C14</f>
         <v>1.6300000000000001</v>
       </c>
     </row>
     <row r="21" ht="16.199999999999999">
-      <c r="A21" s="132" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="109" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="52">
+      <c r="A21" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="107" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="94">
         <f>C4</f>
         <v>800</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="94">
         <f>C4</f>
         <v>800</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="94">
         <f>C4</f>
         <v>800</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="94">
         <f>C4</f>
         <v>800</v>
       </c>
-      <c r="G21" s="54">
+      <c r="G21" s="93">
         <f>C4</f>
         <v>800</v>
       </c>
     </row>
     <row r="22" ht="28.5">
-      <c r="A22" s="134" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="139" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="112">
+      <c r="A22" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="109">
         <f>C3</f>
         <v>0.17000000000000001</v>
       </c>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="114"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="111"/>
     </row>
     <row r="24">
-      <c r="A24" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="46">
+      <c r="A24" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="44">
         <f>C19*C22+C20*C21</f>
         <v>1471.3610000000001</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="140">
+      <c r="A25" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="112">
         <f>D19*C22+D20*D21</f>
         <v>1229.1849999999999</v>
       </c>
-      <c r="D25" s="115" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="117"/>
+      <c r="D25" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="41"/>
     </row>
     <row r="26">
-      <c r="A26" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="46">
+      <c r="A26" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="44">
         <f>E19*C22+E20*E21</f>
         <v>1360.1769999999999</v>
       </c>
-      <c r="D26" s="118"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="119"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="45"/>
     </row>
     <row r="27">
-      <c r="A27" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="46">
+      <c r="A27" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="44">
         <f>F19*C22+F20*F21</f>
         <v>1413.4739999999999</v>
       </c>
-      <c r="D27" s="118"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="119"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="45"/>
     </row>
     <row r="28">
-      <c r="A28" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="46">
+      <c r="A28" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="44">
         <f>G19*C22+G20*G21</f>
         <v>1313.741</v>
       </c>
-      <c r="D28" s="120"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="122"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="49"/>
     </row>
     <row r="30">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
     </row>
     <row r="32" ht="34.799999999999997" customHeight="1">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -10088,7 +9173,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -10102,317 +9187,316 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="141" width="42.203125"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" style="141" width="14.54296875"/>
-    <col customWidth="1" min="3" max="3" style="141" width="10.7109375"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" style="141" width="42.203125"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" style="141" width="10.7734375"/>
-    <col customWidth="1" min="6" max="6" style="141" width="12.140625"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" style="141" width="13.28125"/>
-    <col bestFit="1" customWidth="1" min="8" max="9" style="141" width="17.05078125"/>
-    <col min="10" max="10" style="141" width="8.88671875"/>
-    <col min="11" max="16384" style="141" width="8.88671875"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="113" width="42.203125"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="113" width="14.54296875"/>
+    <col customWidth="1" min="3" max="3" style="113" width="10.7109375"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" style="113" width="42.203125"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="113" width="10.7734375"/>
+    <col customWidth="1" min="6" max="6" style="113" width="12.140625"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" style="113" width="13.28125"/>
+    <col bestFit="1" customWidth="1" min="8" max="9" style="113" width="17.05078125"/>
+    <col min="10" max="16384" style="113" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.4" customHeight="1">
-      <c r="A1" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="D1" s="142" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="143"/>
-      <c r="G1" s="144" t="s">
+      <c r="A1" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="D1" s="114" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="G1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="145">
+      <c r="H1" s="117">
         <v>4</v>
       </c>
-      <c r="I1" s="146"/>
+      <c r="I1" s="118"/>
     </row>
     <row r="2" ht="14.4" customHeight="1">
-      <c r="A2" s="147" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="148" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="149" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="148" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="150" t="s">
+      <c r="A2" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="120" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="121" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="120" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="151" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2" s="152" t="s">
-        <v>108</v>
+      <c r="H2" s="123" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="124" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" s="150">
+      <c r="A3" s="122">
         <f>H5</f>
         <v>55</v>
       </c>
-      <c r="B3" s="153">
+      <c r="B3" s="125">
         <f>H4</f>
         <v>15</v>
       </c>
-      <c r="D3" s="150">
+      <c r="D3" s="122">
         <f>I5</f>
         <v>48</v>
       </c>
-      <c r="E3" s="153">
+      <c r="E3" s="125">
         <f>I4</f>
         <v>10</v>
       </c>
-      <c r="G3" s="154" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="155">
+      <c r="G3" s="126" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="127">
         <v>170</v>
       </c>
-      <c r="I3" s="156">
+      <c r="I3" s="128">
         <v>190</v>
       </c>
     </row>
     <row r="4" ht="14.4" customHeight="1">
-      <c r="A4" s="154">
+      <c r="A4" s="126">
         <f>H7</f>
         <v>43</v>
       </c>
-      <c r="B4" s="157">
+      <c r="B4" s="129">
         <f>H6</f>
         <v>20</v>
       </c>
-      <c r="D4" s="154">
+      <c r="D4" s="126">
         <f>I7</f>
         <v>72</v>
       </c>
-      <c r="E4" s="157">
+      <c r="E4" s="129">
         <f>I6</f>
         <v>15</v>
       </c>
-      <c r="G4" s="154" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="155">
+      <c r="G4" s="126" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="127">
         <v>15</v>
       </c>
-      <c r="I4" s="156">
+      <c r="I4" s="128">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="14.4" customHeight="1">
-      <c r="A5" s="158">
+      <c r="A5" s="130">
         <f>H9</f>
         <v>72</v>
       </c>
-      <c r="B5" s="159">
+      <c r="B5" s="131">
         <f>H8</f>
         <v>30</v>
       </c>
-      <c r="D5" s="158">
+      <c r="D5" s="130">
         <f>I9</f>
         <v>70</v>
       </c>
-      <c r="E5" s="159">
+      <c r="E5" s="131">
         <f>I8</f>
         <v>20</v>
       </c>
-      <c r="G5" s="154" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="155">
+      <c r="G5" s="126" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="127">
         <v>55</v>
       </c>
-      <c r="I5" s="156">
+      <c r="I5" s="128">
         <v>48</v>
       </c>
     </row>
     <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" s="141"/>
-      <c r="B6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="G6" s="154" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="155">
+      <c r="A6" s="113"/>
+      <c r="B6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="G6" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="127">
         <v>20</v>
       </c>
-      <c r="I6" s="156">
+      <c r="I6" s="128">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="161" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="160" t="s">
+      <c r="B7" s="133" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="161" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="154" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="155">
+      <c r="E7" s="133" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="126" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="127">
         <v>43</v>
       </c>
-      <c r="I7" s="156">
+      <c r="I7" s="128">
         <v>72</v>
       </c>
     </row>
     <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="162" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="153">
+      <c r="A8" s="134" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="125">
         <f>H3</f>
         <v>170</v>
       </c>
-      <c r="D8" s="162" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="153">
+      <c r="D8" s="134" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="125">
         <f>I3</f>
         <v>190</v>
       </c>
-      <c r="G8" s="154" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="155">
+      <c r="G8" s="126" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="127">
         <v>30</v>
       </c>
-      <c r="I8" s="156">
+      <c r="I8" s="128">
         <v>20</v>
       </c>
     </row>
     <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="163" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="157">
+      <c r="A9" s="135" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="129">
         <f>((A3*B3)+(A4*B4)+(A5*B5))/B8</f>
         <v>22.617647058823529</v>
       </c>
-      <c r="D9" s="163" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="157">
+      <c r="D9" s="135" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="129">
         <f>((D3*E3)+(D4*E4)+(D5*E5))/E8</f>
         <v>15.578947368421053</v>
       </c>
-      <c r="G9" s="158" t="s">
-        <v>118</v>
-      </c>
-      <c r="H9" s="164">
+      <c r="G9" s="130" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="136">
         <v>72</v>
       </c>
-      <c r="I9" s="165">
+      <c r="I9" s="137">
         <v>70</v>
       </c>
     </row>
     <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="163" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="157">
+      <c r="A10" s="135" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="129">
         <f>((B3-B9)^2*A3+(B4-B9)^2*A4+(B5-B9)^2*A5)/B8</f>
         <v>43.589100346020764</v>
       </c>
-      <c r="D10" s="163" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="157">
+      <c r="D10" s="135" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="129">
         <f>((E3-E9)^2*D3+(E4-E9)^2*D4+(E5-E9)^2*D5)/E8</f>
         <v>15.191135734072022</v>
       </c>
     </row>
     <row r="11" ht="14.4" customHeight="1">
-      <c r="A11" s="163" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="157">
+      <c r="A11" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="129">
         <f>SQRT(B10)</f>
         <v>6.6022042035990349</v>
       </c>
-      <c r="D11" s="163" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="157">
+      <c r="D11" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="129">
         <f>SQRT(E10)</f>
         <v>3.8975807540154985</v>
       </c>
-      <c r="G11" s="166" t="s">
-        <v>121</v>
-      </c>
-      <c r="H11" s="167"/>
-      <c r="I11" s="168"/>
+      <c r="G11" s="138" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="139"/>
+      <c r="I11" s="140"/>
     </row>
     <row r="12" ht="14.4" customHeight="1">
-      <c r="A12" s="163" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="157">
+      <c r="A12" s="135" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="129">
         <f>B11/B9*100</f>
         <v>29.190499729826687</v>
       </c>
-      <c r="D12" s="163" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="157">
+      <c r="D12" s="135" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="129">
         <f>E11/E9*100</f>
         <v>25.018254839964349</v>
       </c>
-      <c r="G12" s="169"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="171"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="143"/>
     </row>
     <row r="13" ht="14.4" customHeight="1">
-      <c r="A13" s="172" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="165" t="str">
+      <c r="A13" s="144" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="137" t="str">
         <f>IF(AND(B12&gt;0,B12&lt;=9),"Слабая",IF(AND(B12&gt;10,B12&lt;=25),"Умеренная","Высокая"))</f>
         <v>Высокая</v>
       </c>
-      <c r="D13" s="172" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="165" t="str">
+      <c r="D13" s="144" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="137" t="str">
         <f>IF(AND(E12&gt;0,E12&lt;=9),"Слабая",IF(AND(E12&gt;10,E12&lt;=25),"Умеренная","Высокая"))</f>
         <v>Высокая</v>
       </c>
-      <c r="F13" s="173"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="171"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="143"/>
     </row>
     <row r="14" ht="14.4" customHeight="1">
-      <c r="G14" s="169"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="171"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="143"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="G15" s="169"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="171"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="143"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="G16" s="174"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="176"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10423,7 +9507,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>